--- a/PartnerData/excel/자연대 제휴업체.xlsx
+++ b/PartnerData/excel/자연대 제휴업체.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5efb5bcb5076d38/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{188A2D4B-F6D3-4A7B-A5A6-10EB8C1ABEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9359B284-5FAE-495A-B090-A176C57139BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD99EAD8-4D1E-284B-ABB2-E0118287789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB069C05-CFB1-4D6D-AB9C-3D8A3AA6851B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{FB069C05-CFB1-4D6D-AB9C-3D8A3AA6851B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사진관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에이블 스튜디오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC방</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3pop PC카페</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>당구장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>죽빵 당구장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만화카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>막툰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,10 +510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미용실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제이헤어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,10 +519,6 @@
   </si>
   <si>
     <t>시술 시 1년간 10~20% (cut 제외) / 3월의 행사(현금결제만): 남자 cut 10000원, 여자 cut 13000원 / *sample : 시술 시 헤어제품 증정 (소진까지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토익</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -883,13 +859,17 @@
   </si>
   <si>
     <t>충북 청주시 서원구 사직대로 108</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,18 +1264,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD811BD2-1B81-4CEF-AB51-E46E0B57DAEE}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" customWidth="1"/>
-    <col min="4" max="5" width="65.296875" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="5" width="65.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1326,10 +1306,10 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1343,10 +1323,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1360,10 +1340,10 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1377,10 +1357,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1394,10 +1374,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1411,10 +1391,10 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1428,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1445,10 +1425,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1462,10 +1442,10 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1479,10 +1459,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1496,10 +1476,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1513,10 +1493,10 @@
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1530,10 +1510,10 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1547,10 +1527,10 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1564,10 +1544,10 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1581,10 +1561,10 @@
         <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1592,16 +1572,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1609,16 +1589,16 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1632,10 +1612,10 @@
         <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1649,10 +1629,10 @@
         <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1666,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1683,10 +1663,10 @@
         <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1700,10 +1680,10 @@
         <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1717,10 +1697,10 @@
         <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1734,10 +1714,10 @@
         <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1751,10 +1731,10 @@
         <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1768,10 +1748,10 @@
         <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1785,10 +1765,10 @@
         <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1802,10 +1782,10 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -1819,10 +1799,10 @@
         <v>92</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1836,10 +1816,10 @@
         <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1853,10 +1833,10 @@
         <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -1870,10 +1850,10 @@
         <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1887,109 +1867,109 @@
         <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
